--- a/phones.xlsx
+++ b/phones.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\OneDrive\A_Miscalaneus\Escritorio\Code\git_folder\images_downloader\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F9ECFE-103D-40E4-BA39-2235539C8BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhX8Ci01P+NNwWjTvtaOYYJPp39cQ=="/>
@@ -648,9 +657,6 @@
     <t>negro, blanco, oro, plata, oro rosa, negro perla, azul</t>
   </si>
   <si>
-    <t>Galazy S7</t>
-  </si>
-  <si>
     <t>negro, plata, oro</t>
   </si>
   <si>
@@ -1012,58 +1018,74 @@
   </si>
   <si>
     <t>32, 64</t>
+  </si>
+  <si>
+    <t>Galaxy S7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1078,16 +1100,21 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1097,69 +1124,70 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1349,29 +1377,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
-    <col customWidth="1" min="2" max="2" width="10.56"/>
-    <col customWidth="1" min="3" max="3" width="21.78"/>
-    <col customWidth="1" min="4" max="4" width="13.0"/>
-    <col customWidth="1" min="5" max="5" width="34.11"/>
-    <col customWidth="1" min="6" max="6" width="20.67"/>
-    <col customWidth="1" min="7" max="26" width="10.56"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.53515625" customWidth="1"/>
+    <col min="3" max="3" width="21.765625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="34.07421875" customWidth="1"/>
+    <col min="6" max="6" width="20.69140625" customWidth="1"/>
+    <col min="7" max="26" width="10.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1430,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -1439,7 +1469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>11</v>
@@ -1541,7 +1571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1575,7 +1605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -1626,7 +1656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>31</v>
@@ -1643,7 +1673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1691,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -1679,7 +1709,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1727,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1745,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1763,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -1751,7 +1781,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -1769,7 +1799,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -1787,7 +1817,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1835,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -1816,14 +1846,14 @@
         <v>51</v>
       </c>
       <c r="D26" s="6">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -1834,14 +1864,14 @@
         <v>53</v>
       </c>
       <c r="D27" s="6">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -1859,7 +1889,7 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1870,14 +1900,14 @@
         <v>57</v>
       </c>
       <c r="D29" s="6">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -1895,7 +1925,7 @@
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1943,7 @@
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1931,7 +1961,7 @@
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1979,7 @@
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +1997,7 @@
       </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -1978,14 +2008,14 @@
         <v>69</v>
       </c>
       <c r="D35" s="6">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2003,7 +2033,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2051,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2032,14 +2062,14 @@
         <v>75</v>
       </c>
       <c r="D38" s="6">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2057,7 +2087,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2075,7 +2105,7 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2123,7 @@
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
@@ -2111,7 +2141,7 @@
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2159,7 @@
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2177,7 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>5</v>
       </c>
@@ -2158,14 +2188,14 @@
         <v>86</v>
       </c>
       <c r="D45" s="6">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>87</v>
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>5</v>
       </c>
@@ -2183,7 +2213,7 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>5</v>
       </c>
@@ -2201,7 +2231,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>5</v>
       </c>
@@ -2212,13 +2242,13 @@
         <v>92</v>
       </c>
       <c r="D48" s="8">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
@@ -2229,13 +2259,13 @@
         <v>94</v>
       </c>
       <c r="D49" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -2286,7 +2316,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>5</v>
       </c>
@@ -2297,13 +2327,13 @@
         <v>100</v>
       </c>
       <c r="D53" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>5</v>
       </c>
@@ -2314,13 +2344,13 @@
         <v>102</v>
       </c>
       <c r="D54" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>5</v>
       </c>
@@ -2331,13 +2361,13 @@
         <v>104</v>
       </c>
       <c r="D55" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>5</v>
       </c>
@@ -2354,7 +2384,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>5</v>
       </c>
@@ -2371,7 +2401,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>5</v>
       </c>
@@ -2388,7 +2418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>5</v>
       </c>
@@ -2405,7 +2435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>5</v>
       </c>
@@ -2416,13 +2446,13 @@
         <v>114</v>
       </c>
       <c r="D60" s="8">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>5</v>
       </c>
@@ -2433,13 +2463,13 @@
         <v>115</v>
       </c>
       <c r="D61" s="8">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>5</v>
       </c>
@@ -2450,13 +2480,13 @@
         <v>117</v>
       </c>
       <c r="D62" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>5</v>
       </c>
@@ -2467,13 +2497,13 @@
         <v>118</v>
       </c>
       <c r="D63" s="8">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>5</v>
       </c>
@@ -2490,7 +2520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>5</v>
       </c>
@@ -2507,7 +2537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>5</v>
       </c>
@@ -2518,13 +2548,13 @@
         <v>123</v>
       </c>
       <c r="D66" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>5</v>
       </c>
@@ -2535,13 +2565,13 @@
         <v>124</v>
       </c>
       <c r="D67" s="8">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +2588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>5</v>
       </c>
@@ -2569,13 +2599,13 @@
         <v>126</v>
       </c>
       <c r="D69" s="8">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>5</v>
       </c>
@@ -2586,13 +2616,13 @@
         <v>128</v>
       </c>
       <c r="D70" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>5</v>
       </c>
@@ -2603,13 +2633,13 @@
         <v>130</v>
       </c>
       <c r="D71" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>5</v>
       </c>
@@ -2620,13 +2650,13 @@
         <v>131</v>
       </c>
       <c r="D72" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
@@ -2637,13 +2667,13 @@
         <v>133</v>
       </c>
       <c r="D73" s="8">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>5</v>
       </c>
@@ -2660,7 +2690,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>5</v>
       </c>
@@ -2677,7 +2707,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -2688,13 +2718,13 @@
         <v>138</v>
       </c>
       <c r="D76" s="8">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>5</v>
       </c>
@@ -2711,7 +2741,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -2728,7 +2758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>5</v>
       </c>
@@ -2745,7 +2775,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>5</v>
       </c>
@@ -2762,7 +2792,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>5</v>
       </c>
@@ -2779,7 +2809,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>5</v>
       </c>
@@ -2799,7 +2829,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>5</v>
       </c>
@@ -2810,13 +2840,13 @@
         <v>150</v>
       </c>
       <c r="D83" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>5</v>
       </c>
@@ -2827,13 +2857,13 @@
         <v>151</v>
       </c>
       <c r="D84" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>5</v>
       </c>
@@ -2844,13 +2874,13 @@
         <v>153</v>
       </c>
       <c r="D85" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>5</v>
       </c>
@@ -2861,13 +2891,13 @@
         <v>155</v>
       </c>
       <c r="D86" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>5</v>
       </c>
@@ -2878,7 +2908,7 @@
         <v>156</v>
       </c>
       <c r="D87" s="8">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>157</v>
@@ -2887,7 +2917,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>5</v>
       </c>
@@ -2898,13 +2928,13 @@
         <v>159</v>
       </c>
       <c r="D88" s="8">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +2945,7 @@
         <v>160</v>
       </c>
       <c r="D89" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>161</v>
@@ -2924,7 +2954,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
@@ -2941,7 +2971,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -2958,7 +2988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>5</v>
       </c>
@@ -2969,13 +2999,13 @@
         <v>166</v>
       </c>
       <c r="D92" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>5</v>
       </c>
@@ -2992,7 +3022,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -3003,13 +3033,13 @@
         <v>170</v>
       </c>
       <c r="D94" s="8">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>5</v>
       </c>
@@ -3020,13 +3050,13 @@
         <v>171</v>
       </c>
       <c r="D95" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>5</v>
       </c>
@@ -3043,7 +3073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
@@ -3060,7 +3090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>5</v>
       </c>
@@ -3071,13 +3101,13 @@
         <v>175</v>
       </c>
       <c r="D98" s="8">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>5</v>
       </c>
@@ -3088,13 +3118,13 @@
         <v>176</v>
       </c>
       <c r="D99" s="8">
-        <v>512.0</v>
+        <v>512</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>5</v>
       </c>
@@ -3105,13 +3135,13 @@
         <v>178</v>
       </c>
       <c r="D100" s="8">
-        <v>512.0</v>
+        <v>512</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>5</v>
       </c>
@@ -3122,13 +3152,13 @@
         <v>180</v>
       </c>
       <c r="D101" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>5</v>
       </c>
@@ -3162,7 +3192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>5</v>
       </c>
@@ -3179,7 +3209,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>5</v>
       </c>
@@ -3196,7 +3226,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>5</v>
       </c>
@@ -3207,13 +3237,13 @@
         <v>187</v>
       </c>
       <c r="D106" s="8">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>5</v>
       </c>
@@ -3224,13 +3254,13 @@
         <v>189</v>
       </c>
       <c r="D107" s="8">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>5</v>
       </c>
@@ -3241,13 +3271,13 @@
         <v>190</v>
       </c>
       <c r="D108" s="8">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>5</v>
       </c>
@@ -3258,13 +3288,13 @@
         <v>192</v>
       </c>
       <c r="D109" s="8">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>5</v>
       </c>
@@ -3281,7 +3311,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>5</v>
       </c>
@@ -3298,7 +3328,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>5</v>
       </c>
@@ -3315,7 +3345,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>5</v>
       </c>
@@ -3332,7 +3362,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>5</v>
       </c>
@@ -3343,13 +3373,13 @@
         <v>201</v>
       </c>
       <c r="D114" s="10">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>5</v>
       </c>
@@ -3360,13 +3390,13 @@
         <v>203</v>
       </c>
       <c r="D115" s="10">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>5</v>
       </c>
@@ -3377,13 +3407,13 @@
         <v>205</v>
       </c>
       <c r="D116" s="10">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>5</v>
       </c>
@@ -3400,32 +3430,32 @@
         <v>209</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="D118" s="10">
+        <v>32</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D118" s="10">
-        <v>32.0</v>
-      </c>
-      <c r="E118" s="11" t="s">
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="9" t="s">
+      <c r="C119" t="s">
         <v>212</v>
-      </c>
-      <c r="C119" t="s">
-        <v>213</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3434,66 +3464,66 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D120" t="s">
         <v>65</v>
       </c>
       <c r="E120" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C121" t="s">
-        <v>216</v>
       </c>
       <c r="D121" t="s">
         <v>65</v>
       </c>
       <c r="E121" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C122" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C122" t="s">
-        <v>218</v>
       </c>
       <c r="D122" t="s">
         <v>43</v>
       </c>
       <c r="E122" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>43</v>
@@ -3502,100 +3532,100 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E124" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E125" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E126" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C127" s="8" t="s">
+      <c r="D127" s="8">
+        <v>128</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D127" s="8">
-        <v>128.0</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>228</v>
-      </c>
       <c r="D128" s="8">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>107</v>
@@ -3604,15 +3634,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>107</v>
@@ -3621,134 +3651,134 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E131" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E132" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E134" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E135" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E136" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E137" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>65</v>
@@ -3757,15 +3787,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>65</v>
@@ -3774,188 +3804,188 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E140" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E141" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E142" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E143" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E145" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C146" s="8" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E146" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C147" s="8" t="s">
+      <c r="D147" s="8">
+        <v>128</v>
+      </c>
+      <c r="E147" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D147" s="8">
-        <v>128.0</v>
-      </c>
-      <c r="E147" s="6" t="s">
+      <c r="F147" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F147" s="8" t="s">
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E148" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E149" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>65</v>
@@ -3964,168 +3994,168 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C151" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D151" s="8">
+        <v>128</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="D151" s="8">
-        <v>128.0</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E152" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E153" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="5" t="s">
+      <c r="C154" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="D154" s="8">
+        <v>128</v>
+      </c>
+      <c r="E154" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D154" s="8">
-        <v>128.0</v>
-      </c>
-      <c r="E154" s="6" t="s">
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="D155" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D156" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E157" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C159" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E159" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C160" s="8" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>283</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>65</v>
@@ -4134,100 +4164,100 @@
         <v>177</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C161" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D161" s="8">
+        <v>128</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D161" s="8">
-        <v>128.0</v>
-      </c>
-      <c r="E161" s="6" t="s">
+    </row>
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C162" s="8" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C162" s="8" t="s">
+      <c r="D162" s="8">
+        <v>128</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D162" s="8">
-        <v>128.0</v>
-      </c>
-      <c r="E162" s="6" t="s">
+    </row>
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C163" s="8" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E163" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C164" s="8" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E164" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C165" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>292</v>
-      </c>
       <c r="D165" s="8">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>65</v>
@@ -4236,117 +4266,117 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C167" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D167" s="8">
+        <v>128</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D167" s="8">
-        <v>128.0</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="5" t="s">
+      <c r="C168" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E168" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" s="5" t="s">
+      <c r="C169" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E169" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C170" s="8" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>301</v>
-      </c>
       <c r="D170" s="8">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E171" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C172" s="8" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C173" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>65</v>
@@ -4355,15 +4385,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>65</v>
@@ -4372,15 +4402,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>65</v>
@@ -4389,32 +4419,32 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C176" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E176" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>11</v>
@@ -4423,1117 +4453,1115 @@
         <v>119</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C178" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D178" s="8">
+        <v>256</v>
+      </c>
+      <c r="E178" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D178" s="8">
-        <v>256.0</v>
-      </c>
-      <c r="E178" s="6" t="s">
+    </row>
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C179" s="8" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B180" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C180" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D181" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C184" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D184" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D184" s="10" t="s">
+    </row>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C185" s="10" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C185" s="10" t="s">
+      <c r="D185" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D185" s="10" t="s">
+    </row>
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C186" s="10" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C186" s="10" t="s">
+      <c r="D186" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C187" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="D186" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C189" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C190" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D189" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C190" s="10" t="s">
+      <c r="D190" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C191" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D190" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C191" s="10" t="s">
+      <c r="D191" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C192" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D191" s="10">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B192" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C192" s="10" t="s">
+      <c r="D192" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D192" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C193" s="10" t="s">
+      <c r="D193" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D193" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C194" s="10" t="s">
+      <c r="D194" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D194" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
+    </row>
+    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/phones.xlsx
+++ b/phones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\OneDrive\A_Miscalaneus\Escritorio\Code\git_folder\images_downloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F9ECFE-103D-40E4-BA39-2235539C8BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0443C00F-CC49-4788-A2C4-FBE2A44A2BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="331">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -868,9 +868,6 @@
   </si>
   <si>
     <t>Find X3 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negro azul blanco </t>
   </si>
   <si>
     <t>Find X3 Neo</t>
@@ -1386,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3438,7 +3435,7 @@
         <v>38</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D118" s="10">
         <v>32</v>
@@ -4144,7 +4141,7 @@
         <v>107</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>281</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4155,7 +4152,7 @@
         <v>279</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>65</v>
@@ -4172,13 +4169,13 @@
         <v>279</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D161" s="8">
         <v>128</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4189,13 +4186,13 @@
         <v>279</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D162" s="8">
         <v>128</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4206,13 +4203,13 @@
         <v>279</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4223,13 +4220,13 @@
         <v>279</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4240,7 +4237,7 @@
         <v>279</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D165" s="8">
         <v>256</v>
@@ -4257,7 +4254,7 @@
         <v>279</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>65</v>
@@ -4274,13 +4271,13 @@
         <v>279</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D167" s="8">
         <v>128</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4288,16 +4285,16 @@
         <v>5</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C168" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4305,16 +4302,16 @@
         <v>5</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C169" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4322,10 +4319,10 @@
         <v>5</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D170" s="8">
         <v>64</v>
@@ -4339,16 +4336,16 @@
         <v>5</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4356,16 +4353,16 @@
         <v>5</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4373,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C173" s="8">
         <v>9</v>
@@ -4390,10 +4387,10 @@
         <v>5</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>65</v>
@@ -4407,10 +4404,10 @@
         <v>5</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>65</v>
@@ -4424,7 +4421,7 @@
         <v>5</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C176" s="8">
         <v>8</v>
@@ -4433,7 +4430,7 @@
         <v>65</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4441,10 +4438,10 @@
         <v>5</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>11</v>
@@ -4458,16 +4455,16 @@
         <v>5</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D178" s="8">
         <v>256</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4475,16 +4472,16 @@
         <v>5</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4492,10 +4489,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C180" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>65</v>
@@ -4506,10 +4503,10 @@
         <v>5</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D181" t="s">
         <v>65</v>
@@ -4520,10 +4517,10 @@
         <v>5</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>65</v>
@@ -4534,10 +4531,10 @@
         <v>5</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>65</v>
@@ -4548,13 +4545,13 @@
         <v>5</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C184" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D184" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4562,13 +4559,13 @@
         <v>5</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C185" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D185" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4576,13 +4573,13 @@
         <v>5</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4590,10 +4587,10 @@
         <v>5</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>65</v>
@@ -4604,10 +4601,10 @@
         <v>5</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>65</v>
@@ -4618,13 +4615,13 @@
         <v>5</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4632,13 +4629,13 @@
         <v>5</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4646,10 +4643,10 @@
         <v>5</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D191" s="10">
         <v>64</v>
@@ -4660,13 +4657,13 @@
         <v>5</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4674,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4688,13 +4685,13 @@
         <v>5</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C194" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D194" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="D194" s="10" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
